--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -546,10 +546,10 @@
         <v>0.777496</v>
       </c>
       <c r="I2">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J2">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.38399666666667</v>
+        <v>12.98850833333333</v>
       </c>
       <c r="N2">
-        <v>46.15199</v>
+        <v>38.965525</v>
       </c>
       <c r="O2">
-        <v>0.4758482082241769</v>
+        <v>0.4337249877124968</v>
       </c>
       <c r="P2">
-        <v>0.475848208224177</v>
+        <v>0.4337249877124967</v>
       </c>
       <c r="Q2">
-        <v>3.986998624115556</v>
+        <v>3.366171091711111</v>
       </c>
       <c r="R2">
-        <v>35.88298761704</v>
+        <v>30.2955398254</v>
       </c>
       <c r="S2">
-        <v>0.009214883901166726</v>
+        <v>0.05076387444019427</v>
       </c>
       <c r="T2">
-        <v>0.009214883901166728</v>
+        <v>0.05076387444019427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.777496</v>
       </c>
       <c r="I3">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J3">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>39.61996</v>
       </c>
       <c r="O3">
-        <v>0.4084999796523087</v>
+        <v>0.4410094991449394</v>
       </c>
       <c r="P3">
-        <v>0.4084999796523088</v>
+        <v>0.4410094991449393</v>
       </c>
       <c r="Q3">
         <v>3.422706713351111</v>
@@ -638,10 +638,10 @@
         <v>30.80436042016</v>
       </c>
       <c r="S3">
-        <v>0.007910673658251131</v>
+        <v>0.05161646544645605</v>
       </c>
       <c r="T3">
-        <v>0.007910673658251132</v>
+        <v>0.05161646544645605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.777496</v>
       </c>
       <c r="I4">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J4">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8020063333333333</v>
+        <v>0.5865036666666666</v>
       </c>
       <c r="N4">
-        <v>2.406019</v>
+        <v>1.759511</v>
       </c>
       <c r="O4">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="P4">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="Q4">
-        <v>0.2078522387137777</v>
+        <v>0.1520014182728889</v>
       </c>
       <c r="R4">
-        <v>1.870670148424</v>
+        <v>1.368012764456</v>
       </c>
       <c r="S4">
-        <v>0.0004803950111143909</v>
+        <v>0.002292272347931682</v>
       </c>
       <c r="T4">
-        <v>0.0004803950111143911</v>
+        <v>0.002292272347931682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.777496</v>
       </c>
       <c r="I5">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J5">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80806</v>
+        <v>1.864071666666667</v>
       </c>
       <c r="N5">
-        <v>5.42418</v>
+        <v>5.592214999999999</v>
       </c>
       <c r="O5">
-        <v>0.05592578638722654</v>
+        <v>0.06224690626292447</v>
       </c>
       <c r="P5">
-        <v>0.05592578638722655</v>
+        <v>0.06224690626292446</v>
       </c>
       <c r="Q5">
-        <v>0.4685864725866666</v>
+        <v>0.4831027548488888</v>
       </c>
       <c r="R5">
-        <v>4.21727825328</v>
+        <v>4.34792479364</v>
       </c>
       <c r="S5">
-        <v>0.00108301264927104</v>
+        <v>0.007285478640479526</v>
       </c>
       <c r="T5">
-        <v>0.00108301264927104</v>
+        <v>0.007285478640479526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.777496</v>
       </c>
       <c r="I6">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J6">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.128914</v>
+        <v>1.300677666666667</v>
       </c>
       <c r="N6">
-        <v>3.386742</v>
+        <v>3.902033</v>
       </c>
       <c r="O6">
-        <v>0.03491886508940492</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="P6">
-        <v>0.03491886508940493</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="Q6">
-        <v>0.2925753731146666</v>
+        <v>0.3370905610408889</v>
       </c>
       <c r="R6">
-        <v>2.633178358032</v>
+        <v>3.033815049368</v>
       </c>
       <c r="S6">
-        <v>0.0006762099387958178</v>
+        <v>0.005083527381537772</v>
       </c>
       <c r="T6">
-        <v>0.000676209938795818</v>
+        <v>0.005083527381537772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H7">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I7">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J7">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.38399666666667</v>
+        <v>12.98850833333333</v>
       </c>
       <c r="N7">
-        <v>46.15199</v>
+        <v>38.965525</v>
       </c>
       <c r="O7">
-        <v>0.4758482082241769</v>
+        <v>0.4337249877124968</v>
       </c>
       <c r="P7">
-        <v>0.475848208224177</v>
+        <v>0.4337249877124967</v>
       </c>
       <c r="Q7">
-        <v>61.44022128741668</v>
+        <v>22.18722537566389</v>
       </c>
       <c r="R7">
-        <v>552.9619915867502</v>
+        <v>199.685028380975</v>
       </c>
       <c r="S7">
-        <v>0.1420026840744473</v>
+        <v>0.334596635898849</v>
       </c>
       <c r="T7">
-        <v>0.1420026840744473</v>
+        <v>0.334596635898849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H8">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I8">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J8">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>39.61996</v>
       </c>
       <c r="O8">
-        <v>0.4084999796523087</v>
+        <v>0.4410094991449394</v>
       </c>
       <c r="P8">
-        <v>0.4084999796523088</v>
+        <v>0.4410094991449393</v>
       </c>
       <c r="Q8">
-        <v>52.74440191633335</v>
+        <v>22.55986495484889</v>
       </c>
       <c r="R8">
-        <v>474.699617247</v>
+        <v>203.03878459364</v>
       </c>
       <c r="S8">
-        <v>0.1219046169606606</v>
+        <v>0.3402162637471705</v>
       </c>
       <c r="T8">
-        <v>0.1219046169606606</v>
+        <v>0.3402162637471703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H9">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I9">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J9">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8020063333333333</v>
+        <v>0.5865036666666666</v>
       </c>
       <c r="N9">
-        <v>2.406019</v>
+        <v>1.759511</v>
       </c>
       <c r="O9">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="P9">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="Q9">
-        <v>3.203032843908334</v>
+        <v>1.001877097972111</v>
       </c>
       <c r="R9">
-        <v>28.827295595175</v>
+        <v>9.016893881748999</v>
       </c>
       <c r="S9">
-        <v>0.007402956100790398</v>
+        <v>0.01510890617865458</v>
       </c>
       <c r="T9">
-        <v>0.0074029561007904</v>
+        <v>0.01510890617865458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H10">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I10">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J10">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.80806</v>
+        <v>1.864071666666667</v>
       </c>
       <c r="N10">
-        <v>5.42418</v>
+        <v>5.592214999999999</v>
       </c>
       <c r="O10">
-        <v>0.05592578638722654</v>
+        <v>0.06224690626292447</v>
       </c>
       <c r="P10">
-        <v>0.05592578638722655</v>
+        <v>0.06224690626292446</v>
       </c>
       <c r="Q10">
-        <v>7.220984826500001</v>
+        <v>3.184243881076111</v>
       </c>
       <c r="R10">
-        <v>64.9888634385</v>
+        <v>28.658194929685</v>
       </c>
       <c r="S10">
-        <v>0.01668938043414672</v>
+        <v>0.04802030323531075</v>
       </c>
       <c r="T10">
-        <v>0.01668938043414673</v>
+        <v>0.04802030323531074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H11">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I11">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J11">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.128914</v>
+        <v>1.300677666666667</v>
       </c>
       <c r="N11">
-        <v>3.386742</v>
+        <v>3.902033</v>
       </c>
       <c r="O11">
-        <v>0.03491886508940492</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="P11">
-        <v>0.03491886508940493</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="Q11">
-        <v>4.50862851035</v>
+        <v>2.221843170194111</v>
       </c>
       <c r="R11">
-        <v>40.57765659315</v>
+        <v>19.996588531747</v>
       </c>
       <c r="S11">
-        <v>0.01042049225326279</v>
+        <v>0.03350672459735353</v>
       </c>
       <c r="T11">
-        <v>0.01042049225326279</v>
+        <v>0.03350672459735352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H12">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I12">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J12">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.38399666666667</v>
+        <v>12.98850833333333</v>
       </c>
       <c r="N12">
-        <v>46.15199</v>
+        <v>38.965525</v>
       </c>
       <c r="O12">
-        <v>0.4758482082241769</v>
+        <v>0.4337249877124968</v>
       </c>
       <c r="P12">
-        <v>0.475848208224177</v>
+        <v>0.4337249877124967</v>
       </c>
       <c r="Q12">
-        <v>4.923089181287778</v>
+        <v>1.596841850522222</v>
       </c>
       <c r="R12">
-        <v>44.30780263159</v>
+        <v>14.3715766547</v>
       </c>
       <c r="S12">
-        <v>0.01137840754854045</v>
+        <v>0.02408133068469545</v>
       </c>
       <c r="T12">
-        <v>0.01137840754854045</v>
+        <v>0.02408133068469544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H13">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I13">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J13">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>39.61996</v>
       </c>
       <c r="O13">
-        <v>0.4084999796523087</v>
+        <v>0.4410094991449394</v>
       </c>
       <c r="P13">
-        <v>0.4084999796523088</v>
+        <v>0.4410094991449393</v>
       </c>
       <c r="Q13">
-        <v>4.226309557595555</v>
+        <v>1.623661178542222</v>
       </c>
       <c r="R13">
-        <v>38.03678601836</v>
+        <v>14.61295060688</v>
       </c>
       <c r="S13">
-        <v>0.009767987294521224</v>
+        <v>0.02448578220040424</v>
       </c>
       <c r="T13">
-        <v>0.009767987294521226</v>
+        <v>0.02448578220040423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H14">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I14">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J14">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8020063333333333</v>
+        <v>0.5865036666666666</v>
       </c>
       <c r="N14">
-        <v>2.406019</v>
+        <v>1.759511</v>
       </c>
       <c r="O14">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="P14">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="Q14">
-        <v>0.2566529874198888</v>
+        <v>0.07210632478977777</v>
       </c>
       <c r="R14">
-        <v>2.309876886779</v>
+        <v>0.6489569231079999</v>
       </c>
       <c r="S14">
-        <v>0.0005931849255369429</v>
+        <v>0.001087406527548626</v>
       </c>
       <c r="T14">
-        <v>0.0005931849255369431</v>
+        <v>0.001087406527548626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H15">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I15">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J15">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.80806</v>
+        <v>1.864071666666667</v>
       </c>
       <c r="N15">
-        <v>5.42418</v>
+        <v>5.592214999999999</v>
       </c>
       <c r="O15">
-        <v>0.05592578638722654</v>
+        <v>0.06224690626292447</v>
       </c>
       <c r="P15">
-        <v>0.05592578638722655</v>
+        <v>0.06224690626292446</v>
       </c>
       <c r="Q15">
-        <v>0.5786039101533332</v>
+        <v>0.2291739415577778</v>
       </c>
       <c r="R15">
-        <v>5.207435191379999</v>
+        <v>2.06256547402</v>
       </c>
       <c r="S15">
-        <v>0.001337288612184266</v>
+        <v>0.003456080180490681</v>
       </c>
       <c r="T15">
-        <v>0.001337288612184266</v>
+        <v>0.003456080180490681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H16">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I16">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J16">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.128914</v>
+        <v>1.300677666666667</v>
       </c>
       <c r="N16">
-        <v>3.386742</v>
+        <v>3.902033</v>
       </c>
       <c r="O16">
-        <v>0.03491886508940492</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="P16">
-        <v>0.03491886508940493</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="Q16">
-        <v>0.3612679084913333</v>
+        <v>0.1599087808137778</v>
       </c>
       <c r="R16">
-        <v>3.251411176422</v>
+        <v>1.439179027324</v>
       </c>
       <c r="S16">
-        <v>0.0008349744125390687</v>
+        <v>0.002411520106955937</v>
       </c>
       <c r="T16">
-        <v>0.0008349744125390687</v>
+        <v>0.002411520106955937</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H17">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I17">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J17">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.38399666666667</v>
+        <v>12.98850833333333</v>
       </c>
       <c r="N17">
-        <v>46.15199</v>
+        <v>38.965525</v>
       </c>
       <c r="O17">
-        <v>0.4758482082241769</v>
+        <v>0.4337249877124968</v>
       </c>
       <c r="P17">
-        <v>0.475848208224177</v>
+        <v>0.4337249877124967</v>
       </c>
       <c r="Q17">
-        <v>135.5346669769744</v>
+        <v>1.610224343608333</v>
       </c>
       <c r="R17">
-        <v>1219.81200279277</v>
+        <v>14.492019092475</v>
       </c>
       <c r="S17">
-        <v>0.3132522327000224</v>
+        <v>0.02428314668875803</v>
       </c>
       <c r="T17">
-        <v>0.3132522327000225</v>
+        <v>0.02428314668875803</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H18">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I18">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J18">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>39.61996</v>
       </c>
       <c r="O18">
-        <v>0.4084999796523087</v>
+        <v>0.4410094991449394</v>
       </c>
       <c r="P18">
-        <v>0.4084999796523088</v>
+        <v>0.4410094991449393</v>
       </c>
       <c r="Q18">
-        <v>116.3520377830089</v>
+        <v>1.637268433693333</v>
       </c>
       <c r="R18">
-        <v>1047.16834004708</v>
+        <v>14.73541590324</v>
       </c>
       <c r="S18">
-        <v>0.2689167017388758</v>
+        <v>0.02469098775090868</v>
       </c>
       <c r="T18">
-        <v>0.2689167017388759</v>
+        <v>0.02469098775090867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H19">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I19">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J19">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8020063333333333</v>
+        <v>0.5865036666666666</v>
       </c>
       <c r="N19">
-        <v>2.406019</v>
+        <v>1.759511</v>
       </c>
       <c r="O19">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="P19">
-        <v>0.02480716064688274</v>
+        <v>0.01958510470101462</v>
       </c>
       <c r="Q19">
-        <v>7.065762146015221</v>
+        <v>0.07271061906766667</v>
       </c>
       <c r="R19">
-        <v>63.59185931413699</v>
+        <v>0.654395571609</v>
       </c>
       <c r="S19">
-        <v>0.016330624609441</v>
+        <v>0.001096519646879731</v>
       </c>
       <c r="T19">
-        <v>0.01633062460944101</v>
+        <v>0.001096519646879731</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H20">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I20">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J20">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.80806</v>
+        <v>1.864071666666667</v>
       </c>
       <c r="N20">
-        <v>5.42418</v>
+        <v>5.592214999999999</v>
       </c>
       <c r="O20">
-        <v>0.05592578638722654</v>
+        <v>0.06224690626292447</v>
       </c>
       <c r="P20">
-        <v>0.05592578638722655</v>
+        <v>0.06224690626292446</v>
       </c>
       <c r="Q20">
-        <v>15.92920326779333</v>
+        <v>0.2310945567316667</v>
       </c>
       <c r="R20">
-        <v>143.36282941014</v>
+        <v>2.079851010585</v>
       </c>
       <c r="S20">
-        <v>0.03681610469162451</v>
+        <v>0.003485044206643514</v>
       </c>
       <c r="T20">
-        <v>0.03681610469162452</v>
+        <v>0.003485044206643513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H21">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I21">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J21">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.128914</v>
+        <v>1.300677666666667</v>
       </c>
       <c r="N21">
-        <v>3.386742</v>
+        <v>3.902033</v>
       </c>
       <c r="O21">
-        <v>0.03491886508940492</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="P21">
-        <v>0.03491886508940493</v>
+        <v>0.04343350217862475</v>
       </c>
       <c r="Q21">
-        <v>9.945853886407331</v>
+        <v>0.1612489123696667</v>
       </c>
       <c r="R21">
-        <v>89.51268497766598</v>
+        <v>1.451240211327</v>
       </c>
       <c r="S21">
-        <v>0.02298718848480725</v>
+        <v>0.002431730092777515</v>
       </c>
       <c r="T21">
-        <v>0.02298718848480725</v>
+        <v>0.002431730092777515</v>
       </c>
     </row>
   </sheetData>
